--- a/User Stories - Login Project.xlsx
+++ b/User Stories - Login Project.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28224"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28221"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="87" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2EAAF9C5-B322-4715-8C19-0DD950394106}"/>
+  <xr:revisionPtr revIDLastSave="90" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB54380E-9D25-435C-AED8-B27FEB539D31}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="103">
   <si>
     <t>ID</t>
   </si>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>Closed Status</t>
-  </si>
-  <si>
-    <t>US-001</t>
   </si>
   <si>
     <t>As a new user, I want to register successfully, so that I can access the platform.</t>
@@ -73,16 +70,13 @@
     <t>High</t>
   </si>
   <si>
-    <t>User Story</t>
+    <t>Task</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
     <t>ProjectName\Registration</t>
-  </si>
-  <si>
-    <t>US-002</t>
   </si>
   <si>
     <t>As a user, I want to see validation messages if required registration fields are left blank, so that I am informed of missing information.</t>
@@ -92,9 +86,6 @@
 - User receives appropriate validation messages.</t>
   </si>
   <si>
-    <t>US-003</t>
-  </si>
-  <si>
     <t>As a registered user, I want to log in successfully using valid credentials, so that I can access my account.</t>
   </si>
   <si>
@@ -103,9 +94,6 @@
   </si>
   <si>
     <t>ProjectName\Login</t>
-  </si>
-  <si>
-    <t>US-004</t>
   </si>
   <si>
     <t>As a user, I want to receive an error message when entering an incorrect password, so that I know my login attempt was unsuccessful.</t>
@@ -116,9 +104,6 @@
 - Failed login attempt is logged.</t>
   </si>
   <si>
-    <t>US-005</t>
-  </si>
-  <si>
     <t>As a user who has forgotten my password, I want to reset it via email, so that I can regain access to my account.</t>
   </si>
   <si>
@@ -130,9 +115,6 @@
   </si>
   <si>
     <t>ProjectName\Account Recovery</t>
-  </si>
-  <si>
-    <t>US-006</t>
   </si>
   <si>
     <t>As a user, I want to update my profile information, so that my account information stays current.</t>
@@ -146,9 +128,6 @@
     <t>ProjectName\Account</t>
   </si>
   <si>
-    <t>US-007</t>
-  </si>
-  <si>
     <t>As a system administrator, I want all user registration and login attempts to be logged, so that I can monitor system activity.</t>
   </si>
   <si>
@@ -156,9 +135,6 @@
   </si>
   <si>
     <t>ProjectName\Monitoring</t>
-  </si>
-  <si>
-    <t>US-008</t>
   </si>
   <si>
     <t>As a user, I want my registration process to handle network failures gracefully, so that no partial data is saved if the connection drops.</t>
@@ -168,9 +144,6 @@
 - Registration either resumes correctly or fails without saving incomplete data.</t>
   </si>
   <si>
-    <t>US-009</t>
-  </si>
-  <si>
     <t>As a user, I want to be notified if my email format is invalid during registration, so that I can correct it before submitting.</t>
   </si>
   <si>
@@ -178,9 +151,6 @@
 - User receives an error message for the invalid email.</t>
   </si>
   <si>
-    <t>US-010</t>
-  </si>
-  <si>
     <t>As a user, I want the option to delete my account, so that I can remove my data from the platform if desired.</t>
   </si>
   <si>
@@ -191,9 +161,6 @@
     <t>Low</t>
   </si>
   <si>
-    <t>US-011</t>
-  </si>
-  <si>
     <t>As an operations team member, I want the platform to support high traffic loads during registration, so that performance remains unaffected during peak times.</t>
   </si>
   <si>
@@ -201,9 +168,6 @@
   </si>
   <si>
     <t>ProjectName\Performance</t>
-  </si>
-  <si>
-    <t>US-012</t>
   </si>
   <si>
     <t>As a user, I want clear error messages when I make mistakes during login or registration, so that I can understand and correct my actions.</t>
@@ -216,9 +180,6 @@
     <t>ProjectName\Feedback</t>
   </si>
   <si>
-    <t>US-013</t>
-  </si>
-  <si>
     <t>As a logged-in user, I want to log out securely, so that my session is terminated properly.</t>
   </si>
   <si>
@@ -229,9 +190,6 @@
     <t>ProjectName\Security</t>
   </si>
   <si>
-    <t>US-014</t>
-  </si>
-  <si>
     <t>As a user, I want to be able to log in on multiple devices, depending on platform requirements, so that I can access my account on different devices as permitted.</t>
   </si>
   <si>
@@ -239,112 +197,157 @@
 - User either maintains both sessions or is logged out of Device 1 (per requirement).</t>
   </si>
   <si>
+    <t>As a user, I want to be logged out automatically after inactivity, so that my session is secure if I forget to log out.</t>
+  </si>
+  <si>
+    <t>- User is logged out automatically after a set period of inactivity.</t>
+  </si>
+  <si>
+    <t>User Story ID</t>
+  </si>
+  <si>
+    <t>User Story</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria</t>
+  </si>
+  <si>
+    <t>Test Case ID</t>
+  </si>
+  <si>
+    <t>Severity</t>
+  </si>
+  <si>
+    <t>Iteration Path</t>
+  </si>
+  <si>
+    <t>US-001</t>
+  </si>
+  <si>
+    <t>"- User fills out all required fields and submits. - Registration is successful, and a verification email is sent. - Registration logs are created."</t>
+  </si>
+  <si>
+    <t>TC-001, TC-008, TC-012</t>
+  </si>
+  <si>
+    <t>US-002</t>
+  </si>
+  <si>
+    <t>"- User submits registration form with empty mandatory fields. - User receives appropriate validation messages."</t>
+  </si>
+  <si>
+    <t>TC-002</t>
+  </si>
+  <si>
+    <t>US-003</t>
+  </si>
+  <si>
+    <t>"- User enters valid credentials and logs in. - Login is successful, directing user to home page."</t>
+  </si>
+  <si>
+    <t>TC-003</t>
+  </si>
+  <si>
+    <t>US-004</t>
+  </si>
+  <si>
+    <t>"- User enters incorrect password. - User receives an 'Incorrect password' message. - Failed login attempt is logged."</t>
+  </si>
+  <si>
+    <t>TC-004, TC-011</t>
+  </si>
+  <si>
+    <t>US-005</t>
+  </si>
+  <si>
+    <t>"- User requests a password reset by entering their email. - User receives reset email and can update their password."</t>
+  </si>
+  <si>
+    <t>TC-005, TC-006</t>
+  </si>
+  <si>
+    <t>US-006</t>
+  </si>
+  <si>
+    <t>"- User updates profile details and saves. - Profile update is successful and reflects in the database. - Email notification for profile change is sent."</t>
+  </si>
+  <si>
+    <t>TC-007, TC-009, TC-013</t>
+  </si>
+  <si>
+    <t>US-007</t>
+  </si>
+  <si>
+    <t>"- New user registration, failed login attempts, and other user actions are logged with details (e.g., timestamp, username, IP)."</t>
+  </si>
+  <si>
+    <t>TC-010, TC-011</t>
+  </si>
+  <si>
+    <t>US-008</t>
+  </si>
+  <si>
+    <t>"- User begins registration, then experiences a network disconnect. - Registration either resumes correctly or fails without saving incomplete data."</t>
+  </si>
+  <si>
+    <t>TC-014</t>
+  </si>
+  <si>
+    <t>US-009</t>
+  </si>
+  <si>
+    <t>"- User enters an invalid email format and submits. - User receives an error message for the invalid email."</t>
+  </si>
+  <si>
+    <t>TC-015</t>
+  </si>
+  <si>
+    <t>US-010</t>
+  </si>
+  <si>
+    <t>"- User requests account deletion. - User receives a confirmation email for deletion."</t>
+  </si>
+  <si>
+    <t>TC-016</t>
+  </si>
+  <si>
+    <t>US-011</t>
+  </si>
+  <si>
+    <t>"- Multiple users register simultaneously without significant performance delays."</t>
+  </si>
+  <si>
+    <t>TC-017</t>
+  </si>
+  <si>
+    <t>US-012</t>
+  </si>
+  <si>
+    <t>"- User makes common mistakes (e.g., empty fields or incorrect credentials). - System displays clear and user-friendly error messages."</t>
+  </si>
+  <si>
+    <t>TC-018</t>
+  </si>
+  <si>
+    <t>US-013</t>
+  </si>
+  <si>
+    <t>"- User logs out from the portal. - User cannot access secured pages after logging out."</t>
+  </si>
+  <si>
+    <t>TC-019</t>
+  </si>
+  <si>
+    <t>US-014</t>
+  </si>
+  <si>
+    <t>"- User logs in on Device 1, then on Device 2. - User either maintains both sessions or is logged out of Device 1 (per requirement)."</t>
+  </si>
+  <si>
+    <t>TC-020</t>
+  </si>
+  <si>
     <t>US-015</t>
-  </si>
-  <si>
-    <t>As a user, I want to be logged out automatically after inactivity, so that my session is secure if I forget to log out.</t>
-  </si>
-  <si>
-    <t>- User is logged out automatically after a set period of inactivity.</t>
-  </si>
-  <si>
-    <t>User Story ID</t>
-  </si>
-  <si>
-    <t>Acceptance Criteria</t>
-  </si>
-  <si>
-    <t>Test Case ID</t>
-  </si>
-  <si>
-    <t>Severity</t>
-  </si>
-  <si>
-    <t>Iteration Path</t>
-  </si>
-  <si>
-    <t>"- User fills out all required fields and submits. - Registration is successful, and a verification email is sent. - Registration logs are created."</t>
-  </si>
-  <si>
-    <t>TC-001, TC-008, TC-012</t>
-  </si>
-  <si>
-    <t>"- User submits registration form with empty mandatory fields. - User receives appropriate validation messages."</t>
-  </si>
-  <si>
-    <t>TC-002</t>
-  </si>
-  <si>
-    <t>"- User enters valid credentials and logs in. - Login is successful, directing user to home page."</t>
-  </si>
-  <si>
-    <t>TC-003</t>
-  </si>
-  <si>
-    <t>"- User enters incorrect password. - User receives an 'Incorrect password' message. - Failed login attempt is logged."</t>
-  </si>
-  <si>
-    <t>TC-004, TC-011</t>
-  </si>
-  <si>
-    <t>"- User requests a password reset by entering their email. - User receives reset email and can update their password."</t>
-  </si>
-  <si>
-    <t>TC-005, TC-006</t>
-  </si>
-  <si>
-    <t>"- User updates profile details and saves. - Profile update is successful and reflects in the database. - Email notification for profile change is sent."</t>
-  </si>
-  <si>
-    <t>TC-007, TC-009, TC-013</t>
-  </si>
-  <si>
-    <t>"- New user registration, failed login attempts, and other user actions are logged with details (e.g., timestamp, username, IP)."</t>
-  </si>
-  <si>
-    <t>TC-010, TC-011</t>
-  </si>
-  <si>
-    <t>"- User begins registration, then experiences a network disconnect. - Registration either resumes correctly or fails without saving incomplete data."</t>
-  </si>
-  <si>
-    <t>TC-014</t>
-  </si>
-  <si>
-    <t>"- User enters an invalid email format and submits. - User receives an error message for the invalid email."</t>
-  </si>
-  <si>
-    <t>TC-015</t>
-  </si>
-  <si>
-    <t>"- User requests account deletion. - User receives a confirmation email for deletion."</t>
-  </si>
-  <si>
-    <t>TC-016</t>
-  </si>
-  <si>
-    <t>"- Multiple users register simultaneously without significant performance delays."</t>
-  </si>
-  <si>
-    <t>TC-017</t>
-  </si>
-  <si>
-    <t>"- User makes common mistakes (e.g., empty fields or incorrect credentials). - System displays clear and user-friendly error messages."</t>
-  </si>
-  <si>
-    <t>TC-018</t>
-  </si>
-  <si>
-    <t>"- User logs out from the portal. - User cannot access secured pages after logging out."</t>
-  </si>
-  <si>
-    <t>TC-019</t>
-  </si>
-  <si>
-    <t>"- User logs in on Device 1, then on Device 2. - User either maintains both sessions or is logged out of Device 1 (per requirement)."</t>
-  </si>
-  <si>
-    <t>TC-020</t>
   </si>
   <si>
     <t>"- User is logged out automatically after a set period of inactivity."</t>
@@ -789,7 +792,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -826,376 +829,346 @@
       <c r="I1" s="7"/>
     </row>
     <row r="2" spans="1:9" ht="72.75">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>10</v>
-      </c>
       <c r="D2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="F2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:9" ht="72.75">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>17</v>
-      </c>
       <c r="D3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="F3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:9" ht="57.75">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:9" ht="72.75">
-      <c r="A5" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="A5" s="2"/>
       <c r="B5" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="F5" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" ht="57.75">
-      <c r="A6" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="A6" s="2"/>
       <c r="B6" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:9" ht="87">
-      <c r="A7" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="A7" s="2"/>
       <c r="B7" s="7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:9" ht="72.75">
-      <c r="A8" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="A8" s="2"/>
       <c r="B8" s="7" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:9" ht="72.75">
-      <c r="A9" s="2" t="s">
-        <v>38</v>
-      </c>
+      <c r="A9" s="2"/>
       <c r="B9" s="7" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
     </row>
     <row r="10" spans="1:9" ht="72.75">
-      <c r="A10" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="A10" s="2"/>
       <c r="B10" s="7" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="F10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:9" ht="57.75">
-      <c r="A11" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="A11" s="2"/>
       <c r="B11" s="7" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9" ht="87">
-      <c r="A12" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="A12" s="2"/>
       <c r="B12" s="7" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="F12" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:9" ht="87">
-      <c r="A13" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="A13" s="2"/>
       <c r="B13" s="7" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9" ht="43.5">
-      <c r="A14" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="A14" s="2"/>
       <c r="B14" s="7" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9" ht="87">
-      <c r="A15" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="A15" s="2"/>
       <c r="B15" s="7" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9" ht="57.75">
-      <c r="A16" s="2" t="s">
-        <v>63</v>
-      </c>
+      <c r="A16" s="2"/>
       <c r="B16" s="7" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -1229,16 +1202,16 @@
   <sheetData>
     <row r="1" spans="1:10" ht="29.25">
       <c r="A1" s="4" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>3</v>
@@ -1247,7 +1220,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>5</v>
@@ -1256,431 +1229,431 @@
         <v>6</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="78" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="J2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="101.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="J3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="66.75" customHeight="1">
       <c r="A4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="J4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="76.5" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="48" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="63" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="51" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="60.75" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="J9" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="49.5" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="J10" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="49.5" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="60" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="60.75" customHeight="1">
       <c r="A13" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="G13" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="42" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="E14" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="57.75" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>97</v>
@@ -1689,54 +1662,54 @@
         <v>98</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="45.75" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="3:3">
@@ -1766,16 +1739,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1783,257 +1756,257 @@
     </row>
     <row r="2" spans="1:5" ht="43.5">
       <c r="A2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="29.25">
       <c r="A3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="29.25">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="43.5">
       <c r="A5" s="2" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="29.25">
       <c r="A6" s="2" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="43.5">
       <c r="A7" s="2" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="29.25">
       <c r="A8" s="2" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="57.75">
       <c r="A9" s="2" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="29.25">
       <c r="A10" s="2" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="29.25">
       <c r="A11" s="2" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25">
       <c r="A12" s="2" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="43.5">
       <c r="A13" s="2" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="29.25">
       <c r="A14" s="2" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="43.5">
       <c r="A15" s="2" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>98</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="29.25">
       <c r="A16" s="2" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/User Stories - Login Project.xlsx
+++ b/User Stories - Login Project.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28221"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28224"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="90" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB54380E-9D25-435C-AED8-B27FEB539D31}"/>
+  <xr:revisionPtr revIDLastSave="91" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F317198B-452D-46FF-8D28-4A5A5CDF96EA}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="103">
   <si>
     <t>ID</t>
   </si>
@@ -73,9 +73,6 @@
     <t>Task</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>ProjectName\Registration</t>
   </si>
   <si>
@@ -228,6 +225,9 @@
   </si>
   <si>
     <t>TC-001, TC-008, TC-012</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
   <si>
     <t>US-002</t>
@@ -791,8 +791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{378A8120-DD8C-49BE-9719-2135849794CD}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -842,11 +842,9 @@
       <c r="E2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="8"/>
+      <c r="G2" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
@@ -854,10 +852,10 @@
     <row r="3" spans="1:9" ht="72.75">
       <c r="A3" s="2"/>
       <c r="B3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>14</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>15</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>10</v>
@@ -865,11 +863,9 @@
       <c r="E3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="8"/>
+      <c r="G3" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
@@ -877,10 +873,10 @@
     <row r="4" spans="1:9" ht="57.75">
       <c r="A4" s="2"/>
       <c r="B4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>16</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>17</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>10</v>
@@ -888,11 +884,9 @@
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>12</v>
-      </c>
+      <c r="F4" s="8"/>
       <c r="G4" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -900,10 +894,10 @@
     <row r="5" spans="1:9" ht="72.75">
       <c r="A5" s="2"/>
       <c r="B5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>10</v>
@@ -911,11 +905,9 @@
       <c r="E5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>12</v>
-      </c>
+      <c r="F5" s="8"/>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -923,22 +915,20 @@
     <row r="6" spans="1:9" ht="57.75">
       <c r="A6" s="2"/>
       <c r="B6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>22</v>
-      </c>
       <c r="D6" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>12</v>
-      </c>
+      <c r="F6" s="8"/>
       <c r="G6" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -946,22 +936,20 @@
     <row r="7" spans="1:9" ht="87">
       <c r="A7" s="2"/>
       <c r="B7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>26</v>
-      </c>
       <c r="D7" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>12</v>
-      </c>
+      <c r="F7" s="8"/>
       <c r="G7" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -969,22 +957,20 @@
     <row r="8" spans="1:9" ht="72.75">
       <c r="A8" s="2"/>
       <c r="B8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="D8" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="8" t="s">
-        <v>12</v>
-      </c>
+      <c r="F8" s="8"/>
       <c r="G8" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -992,22 +978,20 @@
     <row r="9" spans="1:9" ht="72.75">
       <c r="A9" s="2"/>
       <c r="B9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>32</v>
-      </c>
       <c r="D9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="8"/>
+      <c r="G9" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -1015,10 +999,10 @@
     <row r="10" spans="1:9" ht="72.75">
       <c r="A10" s="2"/>
       <c r="B10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>33</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>34</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>10</v>
@@ -1026,11 +1010,9 @@
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="8"/>
+      <c r="G10" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
@@ -1038,22 +1020,20 @@
     <row r="11" spans="1:9" ht="57.75">
       <c r="A11" s="2"/>
       <c r="B11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="8" t="s">
-        <v>12</v>
-      </c>
+      <c r="F11" s="8"/>
       <c r="G11" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
@@ -1061,10 +1041,10 @@
     <row r="12" spans="1:9" ht="87">
       <c r="A12" s="2"/>
       <c r="B12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>38</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>39</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>10</v>
@@ -1072,11 +1052,9 @@
       <c r="E12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="8" t="s">
-        <v>12</v>
-      </c>
+      <c r="F12" s="8"/>
       <c r="G12" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -1084,22 +1062,20 @@
     <row r="13" spans="1:9" ht="87">
       <c r="A13" s="2"/>
       <c r="B13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>42</v>
-      </c>
       <c r="D13" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="8" t="s">
-        <v>12</v>
-      </c>
+      <c r="F13" s="8"/>
       <c r="G13" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
@@ -1107,22 +1083,20 @@
     <row r="14" spans="1:9" ht="43.5">
       <c r="A14" s="2"/>
       <c r="B14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>45</v>
-      </c>
       <c r="D14" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="8" t="s">
-        <v>12</v>
-      </c>
+      <c r="F14" s="8"/>
       <c r="G14" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
@@ -1130,22 +1104,20 @@
     <row r="15" spans="1:9" ht="87">
       <c r="A15" s="2"/>
       <c r="B15" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>48</v>
-      </c>
       <c r="D15" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="8" t="s">
-        <v>12</v>
-      </c>
+      <c r="F15" s="8"/>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
@@ -1153,22 +1125,20 @@
     <row r="16" spans="1:9" ht="57.75">
       <c r="A16" s="2"/>
       <c r="B16" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>50</v>
-      </c>
       <c r="D16" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="8" t="s">
-        <v>12</v>
-      </c>
+      <c r="F16" s="8"/>
       <c r="G16" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -1202,16 +1172,16 @@
   <sheetData>
     <row r="1" spans="1:10" ht="29.25">
       <c r="A1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>3</v>
@@ -1220,7 +1190,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>5</v>
@@ -1229,39 +1199,39 @@
         <v>6</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="78" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="J2" s="3" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="101.25" customHeight="1">
@@ -1269,7 +1239,7 @@
         <v>60</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>61</v>
@@ -1281,19 +1251,19 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="J3" s="3" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="66.75" customHeight="1">
@@ -1301,7 +1271,7 @@
         <v>63</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>64</v>
@@ -1313,19 +1283,19 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="76.5" customHeight="1">
@@ -1333,7 +1303,7 @@
         <v>66</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>67</v>
@@ -1345,19 +1315,19 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="48" customHeight="1">
@@ -1365,7 +1335,7 @@
         <v>69</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>70</v>
@@ -1374,22 +1344,22 @@
         <v>71</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="J6" s="3" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="63" customHeight="1">
@@ -1397,7 +1367,7 @@
         <v>72</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>73</v>
@@ -1406,22 +1376,22 @@
         <v>74</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="51" customHeight="1">
@@ -1429,7 +1399,7 @@
         <v>75</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>76</v>
@@ -1438,22 +1408,22 @@
         <v>77</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="60.75" customHeight="1">
@@ -1461,7 +1431,7 @@
         <v>78</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>79</v>
@@ -1470,22 +1440,22 @@
         <v>80</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="J9" s="3" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="49.5" customHeight="1">
@@ -1493,7 +1463,7 @@
         <v>81</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>82</v>
@@ -1505,19 +1475,19 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="J10" s="3" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="49.5" customHeight="1">
@@ -1525,7 +1495,7 @@
         <v>84</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>85</v>
@@ -1534,22 +1504,22 @@
         <v>86</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="60" customHeight="1">
@@ -1557,7 +1527,7 @@
         <v>87</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>88</v>
@@ -1569,19 +1539,19 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="60.75" customHeight="1">
@@ -1589,7 +1559,7 @@
         <v>90</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>91</v>
@@ -1598,22 +1568,22 @@
         <v>92</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="42" customHeight="1">
@@ -1621,7 +1591,7 @@
         <v>93</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>94</v>
@@ -1630,22 +1600,22 @@
         <v>95</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="57.75" customHeight="1">
@@ -1653,7 +1623,7 @@
         <v>96</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>97</v>
@@ -1662,22 +1632,22 @@
         <v>98</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="45.75" customHeight="1">
@@ -1685,7 +1655,7 @@
         <v>99</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>100</v>
@@ -1694,22 +1664,22 @@
         <v>101</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="3:3">
@@ -1739,16 +1709,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1756,7 +1726,7 @@
     </row>
     <row r="2" spans="1:5" ht="43.5">
       <c r="A2" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
@@ -1765,7 +1735,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>10</v>
@@ -1776,10 +1746,10 @@
         <v>60</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>62</v>
@@ -1793,10 +1763,10 @@
         <v>63</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>65</v>
@@ -1810,7 +1780,7 @@
         <v>66</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>102</v>
@@ -1827,16 +1797,16 @@
         <v>69</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>71</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="43.5">
@@ -1844,16 +1814,16 @@
         <v>72</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>74</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="29.25">
@@ -1861,16 +1831,16 @@
         <v>75</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>77</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="57.75">
@@ -1878,16 +1848,16 @@
         <v>78</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>80</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="29.25">
@@ -1895,10 +1865,10 @@
         <v>81</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>83</v>
@@ -1912,16 +1882,16 @@
         <v>84</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>86</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25">
@@ -1929,10 +1899,10 @@
         <v>87</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>89</v>
@@ -1946,16 +1916,16 @@
         <v>90</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>92</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="29.25">
@@ -1963,16 +1933,16 @@
         <v>93</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="43.5">
@@ -1980,16 +1950,16 @@
         <v>96</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>98</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="29.25">
@@ -1997,16 +1967,16 @@
         <v>99</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>101</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
